--- a/沥青/eta/市场价沥青华东地区拟合残差-Brent原油期货价格_月度数据.xlsx
+++ b/沥青/eta/市场价沥青华东地区拟合残差-Brent原油期货价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>179.9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>297.1</v>
+        <v>288.7</v>
       </c>
       <c r="C3" t="n">
-        <v>204.3</v>
+        <v>195.1</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>273.1</v>
       </c>
       <c r="C4" t="n">
-        <v>282.7</v>
+        <v>284.5</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         <v>259.8</v>
       </c>
       <c r="C11" t="n">
-        <v>259.8</v>
+        <v>259.9</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>336.3</v>
       </c>
       <c r="C13" t="n">
-        <v>336.4</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="14">
@@ -653,7 +653,7 @@
         <v>44.6</v>
       </c>
       <c r="C17" t="n">
-        <v>44.7</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="18">
@@ -679,7 +679,7 @@
         <v>-106.5</v>
       </c>
       <c r="C19" t="n">
-        <v>-106.4</v>
+        <v>-106.5</v>
       </c>
     </row>
     <row r="20">
@@ -731,7 +731,7 @@
         <v>21.6</v>
       </c>
       <c r="C23" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="24">
